--- a/Моделирование систем_/Отчеты/MS4/Slau_new.xlsx
+++ b/Моделирование систем_/Отчеты/MS4/Slau_new.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Slau" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -867,18 +867,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,107 +900,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1662</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>18060</v>
+        <v>33.6</v>
       </c>
       <c r="C2">
-        <v>20710</v>
+        <v>160</v>
       </c>
       <c r="D2">
-        <v>20592</v>
+        <v>256</v>
       </c>
       <c r="E2">
-        <v>7512</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>1663662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15.497557554363301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>18060</v>
+        <v>33.6</v>
       </c>
       <c r="B3">
-        <v>221300</v>
+        <v>35.279999999999902</v>
       </c>
       <c r="C3">
-        <v>226325</v>
+        <v>168</v>
       </c>
       <c r="D3">
-        <v>222505</v>
+        <v>268.8</v>
       </c>
       <c r="E3">
-        <v>81574</v>
+        <v>84</v>
       </c>
       <c r="F3">
-        <v>18078060</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.272435432081501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20710</v>
+        <v>160</v>
       </c>
       <c r="B4">
-        <v>226325</v>
+        <v>168</v>
       </c>
       <c r="C4">
-        <v>289050</v>
+        <v>800</v>
       </c>
       <c r="D4">
-        <v>255780</v>
+        <v>1280</v>
       </c>
       <c r="E4">
-        <v>93470</v>
+        <v>400</v>
       </c>
       <c r="F4">
-        <v>20730710</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77.487787771816798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20592</v>
+        <v>256</v>
       </c>
       <c r="B5">
-        <v>222505</v>
+        <v>268.8</v>
       </c>
       <c r="C5">
-        <v>255780</v>
+        <v>1280</v>
       </c>
       <c r="D5">
-        <v>286812</v>
+        <v>2056</v>
       </c>
       <c r="E5">
-        <v>93257</v>
+        <v>640</v>
       </c>
       <c r="F5">
-        <v>20612592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123.98046043490601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7512</v>
+        <v>80</v>
       </c>
       <c r="B6">
-        <v>81574</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>93470</v>
+        <v>400</v>
       </c>
       <c r="D6">
-        <v>93257</v>
+        <v>640</v>
       </c>
       <c r="E6">
-        <v>38782</v>
+        <v>208</v>
       </c>
       <c r="F6">
-        <v>7519512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38.743893885908399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1008,116 +1010,223 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="e">
         <f t="array" ref="A10:E14">MINVERSE(A2:E6)</f>
-        <v>1.9666098350204171E-2</v>
-      </c>
-      <c r="B10">
-        <v>-4.3610101903225309E-4</v>
-      </c>
-      <c r="C10">
-        <v>-3.9910627821802949E-4</v>
-      </c>
-      <c r="D10">
-        <v>-4.1321972519810371E-4</v>
-      </c>
-      <c r="E10">
-        <v>-9.3644295142999187E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-4.3610101903225233E-4</v>
-      </c>
-      <c r="B11">
-        <v>4.0077321184467751E-5</v>
-      </c>
-      <c r="C11">
-        <v>-1.6151345169496386E-6</v>
-      </c>
-      <c r="D11">
-        <v>1.5459580137015827E-6</v>
-      </c>
-      <c r="E11">
-        <v>3.4858113258784663E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-3.9910627821802922E-4</v>
-      </c>
-      <c r="B12">
-        <v>-1.6151345169496413E-6</v>
-      </c>
-      <c r="C12">
-        <v>3.2364385781870672E-5</v>
-      </c>
-      <c r="D12">
-        <v>7.6318392438748208E-7</v>
-      </c>
-      <c r="E12">
-        <v>8.6555522643057398E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>-4.1321972519810295E-4</v>
-      </c>
-      <c r="B13">
-        <v>1.5459580137015952E-6</v>
-      </c>
-      <c r="C13">
-        <v>7.6318392438748049E-7</v>
-      </c>
-      <c r="D13">
-        <v>3.1654033625845562E-5</v>
-      </c>
-      <c r="E13">
-        <v>-1.1680268830777634E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-9.3644295142999556E-4</v>
-      </c>
-      <c r="B14">
-        <v>3.4858113258795955E-7</v>
-      </c>
-      <c r="C14">
-        <v>8.6555522643060489E-7</v>
-      </c>
-      <c r="D14">
-        <v>-1.1680268830775983E-6</v>
-      </c>
-      <c r="E14">
-        <v>2.0716176395887514E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <f t="array" ref="G10:L14">MINVERSE(A2:D5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L12" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L13" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L14" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="e">
         <f t="array" ref="A16:A20">MMULT(A10:E14,F2:F6)</f>
-        <v>1000.9999999999973</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.496580637194711E-13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>9.50350909079134E-14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2.4868995751603507E-14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-2.2737367544323206E-13</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="array" ref="G16:G20">MMULT(G10:J13,F2:F5)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G17" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G18" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1125,5 +1234,6 @@
     <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Моделирование систем_/Отчеты/MS4/Slau_new.xlsx
+++ b/Моделирование систем_/Отчеты/MS4/Slau_new.xlsx
@@ -867,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,102 +902,102 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>33.6</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>15.497557554363301</v>
+        <v>5.7658819379999997</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>33.6</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>35.279999999999902</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>0.9</v>
       </c>
       <c r="D3">
-        <v>268.8</v>
+        <v>2.5</v>
       </c>
       <c r="E3">
-        <v>84</v>
+        <v>2.5</v>
       </c>
       <c r="F3">
-        <v>16.272435432081501</v>
+        <v>0.57658819400000005</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>168</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>1280</v>
+        <v>22.5</v>
       </c>
       <c r="E4">
-        <v>400</v>
+        <v>22.5</v>
       </c>
       <c r="F4">
-        <v>77.487787771816798</v>
+        <v>5.1892937440000004</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>268.8</v>
+        <v>2.5</v>
       </c>
       <c r="C5">
-        <v>1280</v>
+        <v>22.5</v>
       </c>
       <c r="D5">
-        <v>2056</v>
+        <v>62.5</v>
       </c>
       <c r="E5">
-        <v>640</v>
+        <v>62.5</v>
       </c>
       <c r="F5">
-        <v>123.98046043490601</v>
+        <v>14.414704840000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>2.5</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <v>22.5</v>
       </c>
       <c r="D6">
-        <v>640</v>
+        <v>62.5</v>
       </c>
       <c r="E6">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="F6">
-        <v>38.743893885908399</v>
+        <v>14.414704840000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="e">
         <v>#NUM!</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <v>#NUM!</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <v>#NUM!</v>
       </c>
@@ -1221,12 +1221,740 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <v>#NUM!</v>
       </c>
       <c r="G20" t="e">
         <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.1</v>
+      </c>
+      <c r="B23">
+        <v>0.9</v>
+      </c>
+      <c r="C23">
+        <v>2.5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <f>COUNT(A23:A62)</f>
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <f>SUM(A23:A62)</f>
+        <v>11.999999999999996</v>
+      </c>
+      <c r="J23">
+        <f>SUM(B23:B62)</f>
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <f>SUM(C23:C62)</f>
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <f>SUM(D23:D62)</f>
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <f>SUM(E23:E62)</f>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.1</v>
+      </c>
+      <c r="B24">
+        <v>1.6</v>
+      </c>
+      <c r="C24">
+        <v>2.5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <f>SUM(A23:A62)</f>
+        <v>11.999999999999996</v>
+      </c>
+      <c r="I24">
+        <f>SUM(A23:A62,A23:A62)</f>
+        <v>24.000000000000011</v>
+      </c>
+      <c r="J24">
+        <f>SUMPRODUCT(A23:A62,B23:B62)</f>
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <f>SUMPRODUCT(A23:A62,C23:C62)</f>
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <f>SUMPRODUCT(A23:A62,D23:D62)</f>
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <f>SUMPRODUCT(A23:A62,E23:E62)</f>
+        <v>220.79999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.1</v>
+      </c>
+      <c r="B25">
+        <v>0.9</v>
+      </c>
+      <c r="C25">
+        <v>2.5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.1</v>
+      </c>
+      <c r="B26">
+        <v>1.6</v>
+      </c>
+      <c r="C26">
+        <v>2.5</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27">
+        <v>0.9</v>
+      </c>
+      <c r="C27">
+        <v>2.5</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.5</v>
+      </c>
+      <c r="B28">
+        <v>1.6</v>
+      </c>
+      <c r="C28">
+        <v>2.5</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.5</v>
+      </c>
+      <c r="B29">
+        <v>0.9</v>
+      </c>
+      <c r="C29">
+        <v>2.5</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.5</v>
+      </c>
+      <c r="B30">
+        <v>1.6</v>
+      </c>
+      <c r="C30">
+        <v>2.5</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>0.9</v>
+      </c>
+      <c r="C31">
+        <v>2.5</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>1.6</v>
+      </c>
+      <c r="C32">
+        <v>2.5</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>0.9</v>
+      </c>
+      <c r="C33">
+        <v>2.5</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.1</v>
+      </c>
+      <c r="B34">
+        <v>1.6</v>
+      </c>
+      <c r="C34">
+        <v>2.5</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.5</v>
+      </c>
+      <c r="B35">
+        <v>0.9</v>
+      </c>
+      <c r="C35">
+        <v>2.5</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.5</v>
+      </c>
+      <c r="B36">
+        <v>1.6</v>
+      </c>
+      <c r="C36">
+        <v>2.5</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.5</v>
+      </c>
+      <c r="B37">
+        <v>0.9</v>
+      </c>
+      <c r="C37">
+        <v>2.5</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.5</v>
+      </c>
+      <c r="B38">
+        <v>1.6</v>
+      </c>
+      <c r="C38">
+        <v>2.5</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.1</v>
+      </c>
+      <c r="B39">
+        <v>0.9</v>
+      </c>
+      <c r="C39">
+        <v>2.5</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.1</v>
+      </c>
+      <c r="B40">
+        <v>1.6</v>
+      </c>
+      <c r="C40">
+        <v>2.5</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.1</v>
+      </c>
+      <c r="B41">
+        <v>0.9</v>
+      </c>
+      <c r="C41">
+        <v>2.5</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.1</v>
+      </c>
+      <c r="B42">
+        <v>1.6</v>
+      </c>
+      <c r="C42">
+        <v>2.5</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.5</v>
+      </c>
+      <c r="B43">
+        <v>0.9</v>
+      </c>
+      <c r="C43">
+        <v>2.5</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.5</v>
+      </c>
+      <c r="B44">
+        <v>1.6</v>
+      </c>
+      <c r="C44">
+        <v>2.5</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.5</v>
+      </c>
+      <c r="B45">
+        <v>0.9</v>
+      </c>
+      <c r="C45">
+        <v>2.5</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.5</v>
+      </c>
+      <c r="B46">
+        <v>1.6</v>
+      </c>
+      <c r="C46">
+        <v>2.5</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.1</v>
+      </c>
+      <c r="B47">
+        <v>0.9</v>
+      </c>
+      <c r="C47">
+        <v>2.5</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.1</v>
+      </c>
+      <c r="B48">
+        <v>1.6</v>
+      </c>
+      <c r="C48">
+        <v>2.5</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.1</v>
+      </c>
+      <c r="B49">
+        <v>0.9</v>
+      </c>
+      <c r="C49">
+        <v>2.5</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.1</v>
+      </c>
+      <c r="B50">
+        <v>1.6</v>
+      </c>
+      <c r="C50">
+        <v>2.5</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.5</v>
+      </c>
+      <c r="B51">
+        <v>0.9</v>
+      </c>
+      <c r="C51">
+        <v>2.5</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>1.6</v>
+      </c>
+      <c r="C52">
+        <v>2.5</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.5</v>
+      </c>
+      <c r="B53">
+        <v>0.9</v>
+      </c>
+      <c r="C53">
+        <v>2.5</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.5</v>
+      </c>
+      <c r="B54">
+        <v>1.6</v>
+      </c>
+      <c r="C54">
+        <v>2.5</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.1</v>
+      </c>
+      <c r="B55">
+        <v>0.9</v>
+      </c>
+      <c r="C55">
+        <v>2.5</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.1</v>
+      </c>
+      <c r="B56">
+        <v>1.6</v>
+      </c>
+      <c r="C56">
+        <v>2.5</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.1</v>
+      </c>
+      <c r="B57">
+        <v>0.9</v>
+      </c>
+      <c r="C57">
+        <v>2.5</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.1</v>
+      </c>
+      <c r="B58">
+        <v>1.6</v>
+      </c>
+      <c r="C58">
+        <v>2.5</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.5</v>
+      </c>
+      <c r="B59">
+        <v>0.9</v>
+      </c>
+      <c r="C59">
+        <v>2.5</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.5</v>
+      </c>
+      <c r="B60">
+        <v>1.6</v>
+      </c>
+      <c r="C60">
+        <v>2.5</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.5</v>
+      </c>
+      <c r="B61">
+        <v>0.9</v>
+      </c>
+      <c r="C61">
+        <v>2.5</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.5</v>
+      </c>
+      <c r="B62">
+        <v>1.6</v>
+      </c>
+      <c r="C62">
+        <v>2.5</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Моделирование систем_/Отчеты/MS4/Slau_new.xlsx
+++ b/Моделирование систем_/Отчеты/MS4/Slau_new.xlsx
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,102 +902,102 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>490</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="F2">
-        <v>5.7658819379999997</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>412</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>388</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>748</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>378</v>
       </c>
       <c r="F3">
-        <v>0.57658819400000005</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>388</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>430</v>
       </c>
       <c r="D4">
-        <v>22.5</v>
+        <v>764</v>
       </c>
       <c r="E4">
-        <v>22.5</v>
+        <v>383</v>
       </c>
       <c r="F4">
-        <v>5.1892937440000004</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>25</v>
+        <v>490</v>
       </c>
       <c r="B5">
-        <v>2.5</v>
+        <v>748</v>
       </c>
       <c r="C5">
-        <v>22.5</v>
+        <v>764</v>
       </c>
       <c r="D5">
-        <v>62.5</v>
+        <v>1614</v>
       </c>
       <c r="E5">
-        <v>62.5</v>
+        <v>759</v>
       </c>
       <c r="F5">
-        <v>14.414704840000001</v>
+        <v>9624</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="B6">
-        <v>2.5</v>
+        <v>378</v>
       </c>
       <c r="C6">
-        <v>22.5</v>
+        <v>383</v>
       </c>
       <c r="D6">
-        <v>62.5</v>
+        <v>759</v>
       </c>
       <c r="E6">
-        <v>65</v>
+        <v>421</v>
       </c>
       <c r="F6">
-        <v>14.414704840000001</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1011,239 +1011,239 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="e">
+      <c r="A10">
         <f t="array" ref="A10:E14">MINVERSE(A2:E6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
+        <v>0.25347756324799814</v>
+      </c>
+      <c r="B10">
+        <v>-2.9902775729568377E-2</v>
+      </c>
+      <c r="C10">
+        <v>-3.8561675095074861E-2</v>
+      </c>
+      <c r="D10">
+        <v>-2.6484697391894685E-2</v>
+      </c>
+      <c r="E10">
+        <v>-3.9037296946833652E-2</v>
+      </c>
+      <c r="G10">
         <f t="array" ref="G10:L14">MINVERSE(A2:D5)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#NUM!</v>
+        <v>0.1935303362776144</v>
+      </c>
+      <c r="H10">
+        <v>-3.1723353332222412E-2</v>
+      </c>
+      <c r="I10">
+        <v>-3.5371298816732455E-2</v>
+      </c>
+      <c r="J10">
+        <v>-2.7309246708516161E-2</v>
       </c>
       <c r="K10" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L10" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#NUM!</v>
+      <c r="A11">
+        <v>-2.9902775729568089E-2</v>
+      </c>
+      <c r="B11">
+        <v>2.5872721783098341E-2</v>
+      </c>
+      <c r="C11">
+        <v>-4.5324081514370035E-3</v>
+      </c>
+      <c r="D11">
+        <v>-2.0932068784049442E-4</v>
+      </c>
+      <c r="E11">
+        <v>-1.1855498924858595E-3</v>
+      </c>
+      <c r="G11">
+        <v>-3.1723353332222218E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.5817431438994131E-2</v>
+      </c>
+      <c r="I11">
+        <v>-4.4355174712516002E-3</v>
+      </c>
+      <c r="J11">
+        <v>-2.3436197989002729E-4</v>
       </c>
       <c r="K11" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L11" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#NUM!</v>
+      <c r="A12">
+        <v>-3.8561675095074868E-2</v>
+      </c>
+      <c r="B12">
+        <v>-4.5324081514369506E-3</v>
+      </c>
+      <c r="C12">
+        <v>2.6343684136781106E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.6060911077138915E-4</v>
+      </c>
+      <c r="E12">
+        <v>2.0775550837624987E-3</v>
+      </c>
+      <c r="G12">
+        <v>-3.5371298816732497E-2</v>
+      </c>
+      <c r="H12">
+        <v>-4.4355174712515542E-3</v>
+      </c>
+      <c r="I12">
+        <v>2.6173893117049062E-2</v>
+      </c>
+      <c r="J12">
+        <v>4.0449141714349416E-4</v>
       </c>
       <c r="K12" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L12" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#NUM!</v>
+      <c r="A13">
+        <v>-2.6484697391894744E-2</v>
+      </c>
+      <c r="B13">
+        <v>-2.0932068784045995E-4</v>
+      </c>
+      <c r="C13">
+        <v>3.6060911077139609E-4</v>
+      </c>
+      <c r="D13">
+        <v>8.8389759107259293E-3</v>
+      </c>
+      <c r="E13">
+        <v>-5.3694187616325293E-4</v>
+      </c>
+      <c r="G13">
+        <v>-2.7309246708516241E-2</v>
+      </c>
+      <c r="H13">
+        <v>-2.3436197988998904E-4</v>
+      </c>
+      <c r="I13">
+        <v>4.0449141714350408E-4</v>
+      </c>
+      <c r="J13">
+        <v>8.827634575856896E-3</v>
       </c>
       <c r="K13" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L13" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#NUM!</v>
+      <c r="A14">
+        <v>-3.9037296946833812E-2</v>
+      </c>
+      <c r="B14">
+        <v>-1.1855498924857974E-3</v>
+      </c>
+      <c r="C14">
+        <v>2.077555083762533E-3</v>
+      </c>
+      <c r="D14">
+        <v>-5.3694187616324957E-4</v>
+      </c>
+      <c r="E14">
+        <v>2.5420868152385843E-2</v>
       </c>
       <c r="G14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="H14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="I14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="J14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L14" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="e">
+      <c r="A16">
         <f t="array" ref="A16:A20">MMULT(A10:E14,F2:F6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" t="e">
+        <v>28.593243661593164</v>
+      </c>
+      <c r="G16">
         <f t="array" ref="G16:G20">MMULT(G10:J13,F2:F5)</f>
-        <v>#NUM!</v>
+        <v>21.43736864155693</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G17" t="e">
-        <v>#NUM!</v>
+      <c r="A17">
+        <v>-5.8712279487505903E-2</v>
+      </c>
+      <c r="G17">
+        <v>-0.27603385460067287</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G18" t="e">
-        <v>#NUM!</v>
+      <c r="A18">
+        <v>-0.10688901090295211</v>
+      </c>
+      <c r="G18">
+        <v>0.27394485028604798</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G19" t="e">
-        <v>#NUM!</v>
+      <c r="A19">
+        <v>-0.44874315279955601</v>
+      </c>
+      <c r="G19">
+        <v>-0.54716925448586551</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="e">
-        <v>#NUM!</v>
+      <c r="A20">
+        <v>-4.6598655549087056</v>
       </c>
       <c r="G20" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23">
         <f>COUNT(A23:A62)</f>
@@ -1251,245 +1251,317 @@
       </c>
       <c r="I23">
         <f>SUM(A23:A62)</f>
-        <v>11.999999999999996</v>
+        <v>62</v>
       </c>
       <c r="J23">
         <f>SUM(B23:B62)</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K23">
         <f>SUM(C23:C62)</f>
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="L23">
         <f>SUM(D23:D62)</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M23">
         <f>SUM(E23:E62)</f>
-        <v>736</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <f>SUM(A23:A62)</f>
-        <v>11.999999999999996</v>
+        <v>62</v>
       </c>
       <c r="I24">
         <f>SUM(A23:A62,A23:A62)</f>
-        <v>24.000000000000011</v>
+        <v>124</v>
       </c>
       <c r="J24">
         <f>SUMPRODUCT(A23:A62,B23:B62)</f>
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="K24">
         <f>SUMPRODUCT(A23:A62,C23:C62)</f>
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="L24">
         <f>SUMPRODUCT(A23:A62,D23:D62)</f>
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="M24">
         <f>SUMPRODUCT(A23:A62,E23:E62)</f>
-        <v>220.79999999999995</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <f>SUM(B23:B62)</f>
+        <v>59</v>
+      </c>
+      <c r="I25">
+        <f>SUMPRODUCT(A23:A62,$B$23:$B$62)</f>
+        <v>96</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:M25" si="0">SUMPRODUCT(B23:B62,$B$23:$B$62)</f>
+        <v>97</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>1161</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
+      <c r="H26">
+        <f>SUM(C23:C62)</f>
+        <v>119</v>
+      </c>
+      <c r="I26">
+        <f>SUMPRODUCT(A23:A62,$C$23:$C$62)</f>
+        <v>186</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:M26" si="1">SUMPRODUCT(B23:B62,$C$23:$C$62)</f>
+        <v>178</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="M26">
+        <f>SUMPRODUCT(E23:E62,$C$23:$C$62)</f>
+        <v>2317</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <f>SUM(D23:D62)</f>
+        <v>60</v>
+      </c>
+      <c r="I27">
+        <f>SUMPRODUCT(A23:A62,$D$23:$D$62)</f>
+        <v>93</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:M27" si="2">SUMPRODUCT(B23:B62,$D$23:$D$62)</f>
+        <v>87</v>
+      </c>
+      <c r="K27">
+        <f>SUMPRODUCT(C23:C62,$D$23:$D$62)</f>
+        <v>176</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <f>SUMPRODUCT(E23:E62,$D$23:$D$62)</f>
+        <v>1131</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1500,13 +1572,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1517,132 +1589,132 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1653,220 +1725,220 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>19</v>
@@ -1874,87 +1946,87 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
